--- a/data/clean/Masters_2024.xlsx
+++ b/data/clean/Masters_2024.xlsx
@@ -2794,11 +2794,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
+      <c r="A43" s="6" t="n"/>
       <c r="B43" s="4" t="inlineStr">
         <is>
           <t>Alkhanbouli Mohammad</t>
@@ -5573,11 +5569,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="20" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
+      <c r="A45" s="20" t="n"/>
       <c r="B45" s="20" t="inlineStr">
         <is>
           <t>Aristi Oscar</t>
@@ -7999,11 +7991,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="20" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
+      <c r="A92" s="20" t="n"/>
       <c r="B92" s="20" t="inlineStr">
         <is>
           <t>Tepa Norman</t>
